--- a/downloads/format_oscrms_siod.xlsx
+++ b/downloads/format_oscrms_siod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="9345" tabRatio="961"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="9345" tabRatio="961" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Produk SPBU" sheetId="5" r:id="rId1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>PT. Patra Niaga</t>
   </si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t>Klasifikasi</t>
-  </si>
-  <si>
-    <t>Pendapatan</t>
   </si>
   <si>
     <t>Laporan Detail Crew Supir</t>
@@ -1251,15 +1248,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF808080"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,10 +1262,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="thick">
+        <color rgb="FF808080"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,7 +1329,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="13" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1360,28 +1355,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="38" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="23" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="24" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1754,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1829,16 +1816,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1856,16 +1843,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G8" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3066,16 +3053,16 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -3093,16 +3080,16 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G8" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -4579,10 +4566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4594,12 +4581,10 @@
     <col min="5" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -4608,7 +4593,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -4619,7 +4604,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4628,7 +4613,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4637,7 +4622,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
         <v>1</v>
@@ -4650,21 +4635,21 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -4677,21 +4662,21 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="26"/>
+      <c r="C8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G8" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="12"/>
@@ -4700,7 +4685,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -4709,7 +4694,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4718,7 +4703,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4749,17 +4734,14 @@
       <c r="J13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -4769,15 +4751,12 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -4787,15 +4766,12 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -4805,15 +4781,12 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -4823,15 +4796,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -4841,15 +4811,12 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -4859,15 +4826,12 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -4877,15 +4841,12 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="19"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -4895,15 +4856,12 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -4913,15 +4871,12 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -4931,15 +4886,12 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="20"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -4949,15 +4901,12 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="19"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="20"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -4967,15 +4916,12 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -4985,15 +4931,12 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="19"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="20"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -5003,15 +4946,12 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="19"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="20"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -5021,15 +4961,12 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="19"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="20"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -5039,15 +4976,12 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="19"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="20"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -5057,15 +4991,12 @@
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-    </row>
-    <row r="48" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="19"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="20"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -5075,15 +5006,12 @@
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="19"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="20"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -5093,15 +5021,12 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-    </row>
-    <row r="52" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="19"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="20"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -5111,15 +5036,12 @@
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="19"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="20"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -5129,15 +5051,12 @@
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="19"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="20"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -5147,15 +5066,12 @@
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
-    </row>
-    <row r="58" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="19"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="20"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -5165,15 +5081,12 @@
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
-    </row>
-    <row r="60" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="19"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -5183,15 +5096,12 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="19"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="20"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -5201,15 +5111,12 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
-    </row>
-    <row r="64" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="19"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="20"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -5219,15 +5126,12 @@
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
-    </row>
-    <row r="66" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="19"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="20"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -5237,15 +5141,12 @@
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
-    </row>
-    <row r="68" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="19"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="20"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -5255,15 +5156,12 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
-    </row>
-    <row r="70" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="19"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="20"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -5273,15 +5171,12 @@
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
-    </row>
-    <row r="72" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="19"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="20"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -5291,15 +5186,12 @@
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
-    </row>
-    <row r="74" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="19"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="20"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -5309,15 +5201,12 @@
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
-    </row>
-    <row r="76" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="19"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="20"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -5327,15 +5216,12 @@
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
-    </row>
-    <row r="78" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="19"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="22"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="20"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -5345,15 +5231,12 @@
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
-    </row>
-    <row r="80" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="19"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="20"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -5363,15 +5246,12 @@
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
-    </row>
-    <row r="82" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="22"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="20"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -5381,15 +5261,12 @@
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
-    </row>
-    <row r="84" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="19"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="22"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="20"/>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -5399,15 +5276,12 @@
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-    </row>
-    <row r="86" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="19"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="22"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="20"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
@@ -5417,17 +5291,15 @@
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="K87" s="18"/>
     </row>
   </sheetData>
   <sheetProtection objects="1" scenarios="1"/>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5435,10 +5307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5450,12 +5322,10 @@
     <col min="5" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -5464,7 +5334,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -5475,7 +5345,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -5484,7 +5354,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -5493,7 +5363,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
         <v>1</v>
@@ -5506,21 +5376,21 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -5533,21 +5403,21 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="26"/>
+      <c r="C8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f ca="1">NOW()</f>
-        <v>41874.558698611108</v>
-      </c>
-      <c r="G8" s="26"/>
+        <v>41962.677071990744</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="12"/>
@@ -5556,7 +5426,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -5565,7 +5435,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5574,7 +5444,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5605,15 +5475,14 @@
       <c r="J13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -5623,15 +5492,12 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -5641,15 +5507,12 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -5659,15 +5522,12 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -5677,15 +5537,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -5695,15 +5552,12 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -5713,15 +5567,12 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -5731,15 +5582,12 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="19"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -5749,15 +5597,12 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -5767,15 +5612,12 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -5785,15 +5627,12 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="20"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -5803,15 +5642,12 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="19"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="20"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -5821,15 +5657,12 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -5839,15 +5672,12 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="19"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="20"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -5857,15 +5687,12 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="19"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="20"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -5875,15 +5702,12 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="19"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="20"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -5893,15 +5717,12 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="19"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="20"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -5911,15 +5732,12 @@
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-    </row>
-    <row r="48" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="19"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="20"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -5929,15 +5747,12 @@
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="19"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="20"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -5947,15 +5762,12 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-    </row>
-    <row r="52" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="19"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="20"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -5965,15 +5777,12 @@
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-    </row>
-    <row r="54" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="19"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="20"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -5983,15 +5792,12 @@
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="19"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="20"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -6001,15 +5807,12 @@
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
-    </row>
-    <row r="58" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="19"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="20"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -6019,15 +5822,12 @@
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
-    </row>
-    <row r="60" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="19"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -6037,15 +5837,12 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="19"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="20"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -6055,15 +5852,12 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
-    </row>
-    <row r="64" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="19"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="20"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -6073,15 +5867,12 @@
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
-    </row>
-    <row r="66" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="19"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="20"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -6091,15 +5882,12 @@
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
-    </row>
-    <row r="68" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="19"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="20"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -6109,15 +5897,12 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
-    </row>
-    <row r="70" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="19"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="20"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -6127,15 +5912,12 @@
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
-    </row>
-    <row r="72" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="19"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="20"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -6145,15 +5927,12 @@
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
-    </row>
-    <row r="74" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="19"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="20"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -6163,15 +5942,12 @@
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
-    </row>
-    <row r="76" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="19"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="20"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -6181,15 +5957,12 @@
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
-    </row>
-    <row r="78" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="19"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="22"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="20"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -6199,15 +5972,12 @@
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
-    </row>
-    <row r="80" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="19"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="20"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -6217,15 +5987,12 @@
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
-    </row>
-    <row r="82" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="22"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="20"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -6235,17 +6002,15 @@
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="K83" s="18"/>
     </row>
   </sheetData>
   <sheetProtection objects="1" scenarios="1"/>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
